--- a/uml/Génération_Board.xlsx
+++ b/uml/Génération_Board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flocl\OneDrive - Universite De Technologie De Belfort-Montbeliard\UTBM\INFO-01\AP4B_Project_FX\uml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6273791C-C198-4D39-9C3D-1B7529C3DA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144ACC71-6B0B-4F32-93FE-6B0C22AA8EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{D876A1D6-05A3-4138-B9E5-84A90DB1892A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Generate Board</t>
   </si>
@@ -79,18 +79,6 @@
   </si>
   <si>
     <t>amount per plot</t>
-  </si>
-  <si>
-    <t>Somme</t>
-  </si>
-  <si>
-    <t>Moyenne</t>
-  </si>
-  <si>
-    <t>Résultat cumulé</t>
-  </si>
-  <si>
-    <t>Nombre</t>
   </si>
 </sst>
 </file>
@@ -187,7 +175,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Generate Board</a:t>
+              <a:t>Pistribution of Plot types</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -276,6 +264,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-92C0-420F-B201-BD6AF5F6FF46}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -318,6 +311,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-92C0-420F-B201-BD6AF5F6FF46}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -360,6 +358,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-92C0-420F-B201-BD6AF5F6FF46}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -402,6 +405,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-92C0-420F-B201-BD6AF5F6FF46}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -444,6 +452,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-92C0-420F-B201-BD6AF5F6FF46}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -486,6 +499,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-92C0-420F-B201-BD6AF5F6FF46}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2800,7 +2818,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
